--- a/calculation-engine/engine-tests/engine-it-performance/src/test/resources/datamodel/dslookup/vlookup/DSLOOKUP_vs_VLOOKUP_10set_4times.xlsx
+++ b/calculation-engine/engine-tests/engine-it-performance/src/test/resources/datamodel/dslookup/vlookup/DSLOOKUP_vs_VLOOKUP_10set_4times.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="28800" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="SortedDataSet10" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -426,360 +425,335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="e">
         <f ca="1">DSLOOKUP("SortedDataSet10","Column 1", 5, "Column 3")</f>
         <v>#NAME?</v>
       </c>
       <c r="B1">
-        <f>VLOOKUP(SortedDataSet10!A6, SortedDataSet10!A:H, 3, FALSE)</f>
+        <f>VLOOKUP(D6,D:K, 3, FALSE)</f>
         <v>-5.0000000000000002E-5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="e">
         <f ca="1">DSLOOKUP("SortedDataSet10","Column 1", 9, "Column 3")</f>
         <v>#NAME?</v>
       </c>
       <c r="B2">
-        <f>VLOOKUP(SortedDataSet10!A10, SortedDataSet10!A:H, 3, FALSE)</f>
+        <f>VLOOKUP(D10,D:K, 3, FALSE)</f>
         <v>-9.0000000000000006E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>-1.0000000000000001E-5</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1E+18</v>
+      </c>
+      <c r="K2">
+        <v>-1000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="e">
         <f ca="1">DSLOOKUP("SortedDataSet10","Column 2", "Text 5", "Column 4")</f>
         <v>#NAME?</v>
       </c>
       <c r="B3" t="b">
-        <f>VLOOKUP(SortedDataSet10!B6, SortedDataSet10!B:H, 3, TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(E6,E:K, 3, TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>-2.0000000000000002E-5</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1E+18</v>
+      </c>
+      <c r="K3">
+        <v>-1000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="e">
         <f ca="1">DSLOOKUP("SortedDataSet10","Column 2", "Text 9", "Column 4")</f>
         <v>#NAME?</v>
       </c>
       <c r="B4" t="b">
-        <f>VLOOKUP(SortedDataSet10!B10, SortedDataSet10!B:H, 3, TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2">
-        <v>-1.0000000000000001E-5</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1E+18</v>
-      </c>
-      <c r="H2">
-        <v>-1000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+        <f>VLOOKUP(E10,E:K, 3, TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>-3.0000000000000001E-5</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1E+18</v>
+      </c>
+      <c r="K4">
+        <v>-1000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>-4.0000000000000003E-5</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1E+18</v>
+      </c>
+      <c r="K5">
+        <v>-1000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>-5.0000000000000002E-5</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1E+18</v>
+      </c>
+      <c r="K6">
+        <v>-1000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>-6.0000000000000002E-5</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1E+18</v>
+      </c>
+      <c r="K7">
+        <v>-1000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>-6.9999999999999994E-5</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1E+18</v>
+      </c>
+      <c r="K8">
+        <v>-1000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>-8.0000000000000007E-5</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1E+18</v>
+      </c>
+      <c r="K9">
+        <v>-1000000008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>-9.0000000000000006E-5</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>-2.0000000000000002E-5</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1E+18</v>
-      </c>
-      <c r="H3">
-        <v>-1000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>-3.0000000000000001E-5</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1E+18</v>
-      </c>
-      <c r="H4">
-        <v>-1000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>-4.0000000000000003E-5</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1E+18</v>
-      </c>
-      <c r="H5">
-        <v>-1000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>-5.0000000000000002E-5</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1E+18</v>
+      </c>
+      <c r="K10">
+        <v>-1000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1E+18</v>
-      </c>
-      <c r="H6">
-        <v>-1000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>-6.0000000000000002E-5</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1E+18</v>
-      </c>
-      <c r="H7">
-        <v>-1000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>-6.9999999999999994E-5</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1E+18</v>
-      </c>
-      <c r="H8">
-        <v>-1000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>-8.0000000000000007E-5</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1E+18</v>
-      </c>
-      <c r="H9">
-        <v>-1000000008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>-9.0000000000000006E-5</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1E+18</v>
-      </c>
-      <c r="H10">
-        <v>-1000000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>-1E-4</v>
       </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1E+18</v>
-      </c>
-      <c r="H11">
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1E+18</v>
+      </c>
+      <c r="K11">
         <v>-1000000010</v>
       </c>
     </row>
